--- a/PLSstatic/PLSstatic_predicted_variables_matrix_8.xlsx
+++ b/PLSstatic/PLSstatic_predicted_variables_matrix_8.xlsx
@@ -443,530 +443,530 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.2635339451670392</v>
+        <v>-0.2281722784908007</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.2868354873495578</v>
+        <v>-0.9450025826423425</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1564593074029254</v>
+        <v>-0.4327561053543218</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1751595791611702</v>
+        <v>-1.007418635742523</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1311098594631566</v>
+        <v>-0.4807351009405674</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1439036509271593</v>
+        <v>-1.487200379883007</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.07415957358500486</v>
+        <v>-0.1698080811235126</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.08386111952802523</v>
+        <v>-0.8112142702687729</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1578074711516966</v>
+        <v>-0.1435722966780263</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1611006571204519</v>
+        <v>0.6600759463522082</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.4469422072071904</v>
+        <v>-0.3087582281763757</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4415357073226132</v>
+        <v>-0.9461878793287239</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.2414311160251357</v>
+        <v>-0.4587794576881659</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.2225416666132325</v>
+        <v>-0.7684964777525181</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.4815872218808777</v>
+        <v>-0.5757145459952729</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.4402880652761459</v>
+        <v>-1.462759555691188</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.3237522871221408</v>
+        <v>-0.4514694563417559</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3612431998405045</v>
+        <v>-0.5340374614123443</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.25308217574491</v>
+        <v>-0.2942052311451911</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2503804533745658</v>
+        <v>-1.144042715997361</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.1306647222869716</v>
+        <v>-0.2247271485605528</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1140421538661859</v>
+        <v>-0.7656606421897426</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.03579659339781011</v>
+        <v>-0.06860114684896625</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.03886267303228383</v>
+        <v>-0.1882775918802016</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.04425889682402404</v>
+        <v>-0.2538971980255557</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.02086377826111054</v>
+        <v>-0.2197522014503121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.1226739088937102</v>
+        <v>-0.1166161989110121</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.08071065968236127</v>
+        <v>0.0815373402541214</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.2331786272765199</v>
+        <v>-0.1701404519061747</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2871027684453865</v>
+        <v>-0.1923993313668516</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.4713250799959149</v>
+        <v>0.08573270739481063</v>
       </c>
       <c r="B17" t="n">
-        <v>0.504513455601293</v>
+        <v>0.5588443610890836</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.1153571154378946</v>
+        <v>0.0193536880717859</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.1059231553785427</v>
+        <v>0.392549337515866</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.3517224534357055</v>
+        <v>0.02971326152010036</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3780998462180332</v>
+        <v>0.4603559120995097</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1540299762136151</v>
+        <v>-0.1192912577763853</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1825613759098102</v>
+        <v>0.0547005355363147</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.5098181983923458</v>
+        <v>0.03902512980374093</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5215486957769162</v>
+        <v>0.3346442390706392</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.2758538356171545</v>
+        <v>0.06278842316261118</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3004494239889143</v>
+        <v>0.7322812204539821</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.1410181203235023</v>
+        <v>0.03385708262665894</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.137688550767542</v>
+        <v>0.3933558330928552</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.102403505961383</v>
+        <v>0.8112252719489321</v>
       </c>
       <c r="B24" t="n">
-        <v>3.556317998412647</v>
+        <v>1.627973688413401</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.4267611978475764</v>
+        <v>0.1302275998330896</v>
       </c>
       <c r="B25" t="n">
-        <v>0.3924143109879747</v>
+        <v>0.7456943197896312</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.3333278549271039</v>
+        <v>0.1515711138524058</v>
       </c>
       <c r="B26" t="n">
-        <v>0.311651560833771</v>
+        <v>0.7094818840958533</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.1668678771133085</v>
+        <v>0.105521761749875</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1847067228226916</v>
+        <v>0.7276387023418044</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.157016275444244</v>
+        <v>0.2982722637802794</v>
       </c>
       <c r="B28" t="n">
-        <v>1.033766289486157</v>
+        <v>0.9807189957634788</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3.70457067821467</v>
+        <v>0.6314185549165483</v>
       </c>
       <c r="B29" t="n">
-        <v>3.424333626037149</v>
+        <v>1.690780017481349</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9431273986246858</v>
+        <v>0.2013955421666478</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8976283773555637</v>
+        <v>0.7860223835656993</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-0.3919595614427336</v>
+        <v>0.02483719257675755</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.3710955257408261</v>
+        <v>0.5980581981659435</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.731539345520627</v>
+        <v>0.1736746342570804</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7450363378280933</v>
+        <v>0.920810253958359</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.8610926838367386</v>
+        <v>0.1182409424342906</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8764926256826739</v>
+        <v>0.810598167429427</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.7038208470683565</v>
+        <v>0.08883829216080727</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.7367277099276307</v>
+        <v>0.4330117839264488</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.8674387041670404</v>
+        <v>0.4017800659878021</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8509127661227059</v>
+        <v>1.328501186268377</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.8270160425883012</v>
+        <v>0.2607131313157371</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8068942584791127</v>
+        <v>0.9701650371360311</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.7578071107049313</v>
+        <v>0.06583600360424673</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7417828712569872</v>
+        <v>0.3123393246518008</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.6990129618326929</v>
+        <v>0.3322697090984311</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6922634920198172</v>
+        <v>1.704254102429345</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.6135389958909648</v>
+        <v>-0.07060304971567119</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6051437006576256</v>
+        <v>-0.1644465890263914</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.8012482488054044</v>
+        <v>0.1786626385972376</v>
       </c>
       <c r="B40" t="n">
-        <v>0.801775944850503</v>
+        <v>0.9409548739025546</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.5554753463978145</v>
+        <v>-0.1167628966199462</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5444162021891416</v>
+        <v>0.65561474377252</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.7005967904945126</v>
+        <v>0.2418059993966016</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6996353681877928</v>
+        <v>1.25461173782584</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.7042957328782959</v>
+        <v>0.1916608245638603</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7003297915028629</v>
+        <v>1.117694387931033</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.6958776646378758</v>
+        <v>-0.1214147904016063</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6983596932741738</v>
+        <v>-0.1132243179000224</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.7130201470549956</v>
+        <v>-0.1057977733444171</v>
       </c>
       <c r="B45" t="n">
-        <v>0.713141370076014</v>
+        <v>0.1640665209056412</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-1.303332573303588</v>
+        <v>-0.1894767094903146</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.295644866647043</v>
+        <v>-0.5233256499321619</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-1.013353335844966</v>
+        <v>-0.1889778744099086</v>
       </c>
       <c r="B47" t="n">
-        <v>-1.007362011807835</v>
+        <v>-0.4923663570447318</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-0.8966918682524775</v>
+        <v>-0.2285539900582748</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.8838821743191014</v>
+        <v>-0.5456421001190956</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-0.6558385716506505</v>
+        <v>-0.2211376028321234</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.6471870832965436</v>
+        <v>-0.5934885442690832</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.05966338879613455</v>
+        <v>-0.1542317080930548</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.05560765843034627</v>
+        <v>-0.3837213988737411</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.8638872035428333</v>
+        <v>-0.2132182103331804</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.869536324631742</v>
+        <v>-0.6540461911515563</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.8638872035428333</v>
+        <v>-0.2132182103331804</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.869536324631742</v>
+        <v>-0.6540461911515563</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-1.152538362808095</v>
+        <v>-0.2071250119793882</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.141531179857516</v>
+        <v>-0.4530253688300155</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.1829684844427882</v>
+        <v>-0.207832779078593</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1808398467996085</v>
+        <v>-0.549527211844548</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-1.024419086888611</v>
+        <v>-0.1710718357200046</v>
       </c>
       <c r="B55" t="n">
-        <v>-1.012879774297592</v>
+        <v>-0.3492374008156431</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.8922964475512828</v>
+        <v>-0.1500580597870149</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.8872316329220045</v>
+        <v>-0.4337032655013847</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.9858634875985307</v>
+        <v>-0.1976938154196263</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.9611856498591581</v>
+        <v>-0.5293200855273208</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-1.122656581350078</v>
+        <v>-0.1803430406994986</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.138930359301775</v>
+        <v>-0.588202982933294</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.8226342216992963</v>
+        <v>-0.2214572396297638</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.8297495373651513</v>
+        <v>-0.6682422967837788</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.4584116305076938</v>
+        <v>-0.2093823238006601</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.4671034355404164</v>
+        <v>-0.6393892857454495</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.3697321282284217</v>
+        <v>-0.2654826144233455</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3737190850814519</v>
+        <v>-0.3862114602999622</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-1.230231813821363</v>
+        <v>-0.1642097265672183</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.186942220380916</v>
+        <v>-0.07146077379300829</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.659784443585134</v>
+        <v>-0.3436445555912591</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.6817770744749282</v>
+        <v>-1.135682047689604</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-0.9304004586692021</v>
+        <v>-0.2722895532434333</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.9270470918583277</v>
+        <v>-0.6684407944034956</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-0.05969375004827341</v>
+        <v>-0.193627150722176</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.06795263365444441</v>
+        <v>-0.6654233704590338</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-0.786098314949169</v>
+        <v>-0.1196660269786407</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.7732695967948768</v>
+        <v>-0.12790649042938</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-0.7354971026017553</v>
+        <v>-0.05897642808261178</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.7300184243730526</v>
+        <v>-0.2848051350889697</v>
       </c>
     </row>
   </sheetData>
